--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FIle Gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D248789-55CD-4DDD-AC32-3989C07C644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777057EE-3F7C-4E3C-9F15-349CA98A9D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="2820" windowWidth="19932" windowHeight="9420" xr2:uid="{5F6847A6-4181-43A2-8B49-27E15E2962F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6847A6-4181-43A2-8B49-27E15E2962F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>Tushar</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>tusharpatekar@gmail.com</t>
-  </si>
-  <si>
-    <t>Appa</t>
-  </si>
-  <si>
-    <t>appabossonly@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>Name of the Intern</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>123 Pune St</t>
+  </si>
+  <si>
+    <t>Pune University</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Robert Doe</t>
+  </si>
+  <si>
+    <t>BTech</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>6/13/2025</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>456 Mumbai Rd</t>
+  </si>
+  <si>
+    <t>Mumbai University</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Susan Smith</t>
+  </si>
+  <si>
+    <t>MSc</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Alex Brown</t>
+  </si>
+  <si>
+    <t>789 Delhi Ave</t>
+  </si>
+  <si>
+    <t>Delhi University</t>
+  </si>
+  <si>
+    <t>AI Engineer</t>
+  </si>
+  <si>
+    <t>Michael Brown</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Institution_Name</t>
+  </si>
+  <si>
+    <t>Parent's_Name</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
   </si>
 </sst>
 </file>
@@ -61,9 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,19 +158,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,6 +242,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:J4" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9358D2FC-AF76-49F3-8DD7-8939169F72AB}" name="Name of the Intern" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{57110EC2-D535-41F9-A813-6D6CEFEE6221}" name="Address" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{62013E34-569F-4486-BAB5-64496F84EA2C}" name="Institution_Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{1C39E4E3-32DF-4EB7-A4AE-91504BD35452}" name="Role" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6507B98D-0A99-4CFF-9226-97FA21F09652}" name="Parent's_Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{BD2B6F95-C3B3-4F7D-8FA7-FF3BA33CBA9B}" name="Degree" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F2D7F538-8E23-4072-90EE-747E9108644B}" name="Branch" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{47A4A921-9878-42B4-8B85-D41252E00557}" name="Start_Date" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7A99DC56-F377-41EF-B370-82208536D64B}" name="End_Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{8AFE8B85-29BF-4F7F-9258-F0B770FC5E76}" name="Date" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,55 +560,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2333A0-605C-47D4-B5E6-842E94E9EA5A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9309994235</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45663</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45669</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>9309994235</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45664</v>
+      </c>
+      <c r="I3" s="3">
+        <v>46023</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45665</v>
+      </c>
+      <c r="I4" s="3">
+        <v>46024</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{26466FC3-3A10-4B40-8B0A-ADB2FBC29527}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{01528A0B-4EC7-4645-B7AE-8B86A3EDEE95}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FIle Gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777057EE-3F7C-4E3C-9F15-349CA98A9D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E5904-D5A2-4121-A087-B452DAC41B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6847A6-4181-43A2-8B49-27E15E2962F7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Name of the Intern</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>End_Date</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -196,41 +237,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -245,19 +251,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J4" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9358D2FC-AF76-49F3-8DD7-8939169F72AB}" name="Name of the Intern" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{57110EC2-D535-41F9-A813-6D6CEFEE6221}" name="Address" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{62013E34-569F-4486-BAB5-64496F84EA2C}" name="Institution_Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1C39E4E3-32DF-4EB7-A4AE-91504BD35452}" name="Role" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6507B98D-0A99-4CFF-9226-97FA21F09652}" name="Parent's_Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{BD2B6F95-C3B3-4F7D-8FA7-FF3BA33CBA9B}" name="Degree" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F2D7F538-8E23-4072-90EE-747E9108644B}" name="Branch" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{47A4A921-9878-42B4-8B85-D41252E00557}" name="Start_Date" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{7A99DC56-F377-41EF-B370-82208536D64B}" name="End_Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{8AFE8B85-29BF-4F7F-9258-F0B770FC5E76}" name="Date" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}" name="Table1" displayName="Table1" ref="A1:K4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K4" xr:uid="{0239A786-E8ED-44A6-A204-B6529A4A09BA}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9358D2FC-AF76-49F3-8DD7-8939169F72AB}" name="Name of the Intern" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{57110EC2-D535-41F9-A813-6D6CEFEE6221}" name="Address" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{62013E34-569F-4486-BAB5-64496F84EA2C}" name="Institution_Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1C39E4E3-32DF-4EB7-A4AE-91504BD35452}" name="Role" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6507B98D-0A99-4CFF-9226-97FA21F09652}" name="Parent's_Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BD2B6F95-C3B3-4F7D-8FA7-FF3BA33CBA9B}" name="Degree" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F2D7F538-8E23-4072-90EE-747E9108644B}" name="Branch" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{47A4A921-9878-42B4-8B85-D41252E00557}" name="Start_Date" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7A99DC56-F377-41EF-B370-82208536D64B}" name="End_Date" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{8AFE8B85-29BF-4F7F-9258-F0B770FC5E76}" name="Date" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{17C9DD9E-875F-4A05-8785-ACD5A262D952}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,9 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2333A0-605C-47D4-B5E6-842E94E9EA5A}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -574,7 +583,7 @@
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +614,11 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -637,8 +649,9 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -669,8 +682,9 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -701,6 +715,7 @@
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FIle Gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E5904-D5A2-4121-A087-B452DAC41B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C262675-7A58-42E3-8E7B-5AD01EE37F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6847A6-4181-43A2-8B49-27E15E2962F7}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>AI</t>
   </si>
   <si>
-    <t>Institution_Name</t>
-  </si>
-  <si>
     <t>Parent's_Name</t>
   </si>
   <si>
@@ -120,13 +117,19 @@
     <t>End_Date</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,6 +176,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -256,7 +262,7 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9358D2FC-AF76-49F3-8DD7-8939169F72AB}" name="Name of the Intern" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{57110EC2-D535-41F9-A813-6D6CEFEE6221}" name="Address" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{62013E34-569F-4486-BAB5-64496F84EA2C}" name="Institution_Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{62013E34-569F-4486-BAB5-64496F84EA2C}" name="Institution Name" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{1C39E4E3-32DF-4EB7-A4AE-91504BD35452}" name="Role" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{6507B98D-0A99-4CFF-9226-97FA21F09652}" name="Parent's_Name" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{BD2B6F95-C3B3-4F7D-8FA7-FF3BA33CBA9B}" name="Degree" dataDxfId="5"/>
@@ -264,7 +270,7 @@
     <tableColumn id="8" xr3:uid="{47A4A921-9878-42B4-8B85-D41252E00557}" name="Start_Date" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{7A99DC56-F377-41EF-B370-82208536D64B}" name="End_Date" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{8AFE8B85-29BF-4F7F-9258-F0B770FC5E76}" name="Date" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{17C9DD9E-875F-4A05-8785-ACD5A262D952}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{17C9DD9E-875F-4A05-8785-ACD5A262D952}" name="age" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,7 +576,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +586,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -591,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -606,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -643,13 +649,15 @@
       <c r="H2" s="3">
         <v>45663</v>
       </c>
-      <c r="I2" s="3">
-        <v>45669</v>
+      <c r="I2" s="4">
+        <v>37268</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -676,13 +684,15 @@
       <c r="H3" s="3">
         <v>45664</v>
       </c>
-      <c r="I3" s="3">
-        <v>46023</v>
+      <c r="I3" s="4">
+        <v>37269</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -709,18 +719,21 @@
       <c r="H4" s="3">
         <v>45665</v>
       </c>
-      <c r="I4" s="3">
-        <v>46024</v>
+      <c r="I4" s="4">
+        <v>37270</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>